--- a/pred_ohlcv/54_21/2019-11-02 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 FX ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>729635.8652899624</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>478687.7562899624</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>523602.7615899624</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>409201.9259308247</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>314019.8834308247</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>353723.494066539</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>346682.412566539</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>400353.5807308247</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>369043.5813308248</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>355930.2598308247</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>345891.8341308247</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>274237.1793308248</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>195751.2317308247</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>188791.2952200139</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>115759.7492200139</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>253703.1520815203</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>232384.5880803992</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>233496.3358277676</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>215013.9392277676</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1432172.515799353</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1439876.298399353</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1465377.083299353</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1433347.534202782</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1387447.742102782</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1413138.734702782</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 FX ohlcv.xlsx
@@ -2498,7 +2498,7 @@
         <v>729635.8652899624</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>478687.7562899624</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>523602.7615899624</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>409201.9259308247</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>366019.3573308247</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>340620.1423308247</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>334788.3660308247</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>314019.8834308247</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>353723.494066539</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>342442.788266539</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>342442.788266539</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>346682.412566539</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>369043.5813308248</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>372704.5813308248</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>355930.2598308247</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>345891.8341308247</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>344127.5269308247</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>274237.1793308248</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>195751.2317308247</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>197095.7026308247</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>201955.7229308247</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>200211.1142200139</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>104372.5763200139</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>115759.7492200139</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>267041.2127308709</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>238037.4085815203</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>301964.5623815203</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>285210.8812815203</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>253703.1520815203</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>243738.3014815203</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>243334.3411815203</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>246372.2755457587</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>248566.7623457587</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>263134.7420457587</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>232083.7124921639</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>232092.4280921639</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>229425.4402921639</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>228470.5075921639</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>233234.5599803992</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>232384.5880803992</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>233496.3358277676</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>214566.4892277676</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>223537.8571277676</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>215013.9392277676</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>199808.2772277676</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>167598.6833277676</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>177364.7662257542</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>172689.1065257542</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>173814.9465257542</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>112954.5585257542</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>126379.0100257542</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>114152.1650257542</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>88457.87072575418</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1432173.515799353</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1432172.515799353</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1439877.298399353</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1453217.289599353</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1453216.289599353</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1462791.086599353</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1465377.083299353</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1473492.230999353</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1483243.798099353</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1480627.781099353</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1271491.617799353</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1295885.405599353</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1299071.169399353</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1293908.617099353</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1293935.617099353</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1305685.905499353</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1304896.912499353</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1318437.248299353</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1338640.952699353</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1367355.496099353</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1359367.365299353</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1363883.042399353</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1363715.880899353</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1363717.880899353</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1364127.380899353</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-1439869.121302782</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-1433347.534202782</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-1387447.742102782</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-1413138.734702782</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-1413139.734702782</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1411605.061502782</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
